--- a/Users.xlsx
+++ b/Users.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://genesyslab-my.sharepoint.com/personal/soudip_halder_genesys_com/Documents/Desktop/RelateCare/Get User's Queues and Skills/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="11_78B9838155DA59379143CBF0505ED87656C1E370" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A82D6714-6046-497B-8658-20459DC4FA5B}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="11_1B292292555ADA001562C8F0505ED87656CCB5C2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C88E63EB-32AA-4184-BB8C-A0BECC2EE4C1}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>Name</t>
   </si>
@@ -28,7 +28,10 @@
     <t>Email</t>
   </si>
   <si>
-    <t>UserID</t>
+    <t>Division</t>
+  </si>
+  <si>
+    <t>Roles</t>
   </si>
   <si>
     <t>Queues</t>
@@ -37,152 +40,73 @@
     <t>Skills</t>
   </si>
   <si>
-    <t>Alexis Borlagon</t>
-  </si>
-  <si>
-    <t>Alexis.Borlagon@genesys.com</t>
-  </si>
-  <si>
-    <t>44d5b178-8ce6-422b-8329-52f179ae0628</t>
-  </si>
-  <si>
-    <t>AP Training</t>
-  </si>
-  <si>
-    <t>Beth Mendes</t>
-  </si>
-  <si>
-    <t>Beth.Mendes@genesys.com</t>
-  </si>
-  <si>
-    <t>64ac2f60-9c5d-41da-902f-09d7fd68c0de</t>
-  </si>
-  <si>
-    <t>Claudia Perez</t>
-  </si>
-  <si>
-    <t>Claudia.Perez@genesys.com</t>
-  </si>
-  <si>
-    <t>04c185c6-a3c0-4559-a49c-ead15765d5d4</t>
-  </si>
-  <si>
-    <t>Advanced Solutions Team English, Triad Reception English</t>
-  </si>
-  <si>
-    <t>Divers, Eugene</t>
-  </si>
-  <si>
-    <t>eugene.divers@osaic.com</t>
-  </si>
-  <si>
-    <t>8ba150e2-75dc-4d7b-87be-2259f43a9ef6</t>
-  </si>
-  <si>
-    <t>Frankie</t>
-  </si>
-  <si>
-    <t>frankie.gonzalez@genesys.com</t>
-  </si>
-  <si>
-    <t>d32bb0bb-1573-4947-b70b-4193d905e378</t>
-  </si>
-  <si>
-    <t>Ganesh Murugan</t>
-  </si>
-  <si>
-    <t>Ganesh.Murugan@genesys.com</t>
-  </si>
-  <si>
-    <t>1cf883bf-e853-417c-8962-cf49b94b4a03</t>
-  </si>
-  <si>
-    <t>Dev_Advertising Supervision English, Dev_Advisor Engagement Fuji English, Dev_Advisory Sales English, Dev_AP Account Maintenance English, Dev_AP eQuipt English, Dev_AP eQuipt Financial Planning English, Dev_BD Compliance English, Dev_Central Supervision English, Dev_Compensation English, Dev_CyberGuard English, Dev_Equity Trading English, Dev_Field Supervision English, Dev_Fixed Income Trading English, Dev_Fuji Advisor Engagment English, Dev_Licensing &amp; Registration English, Dev_LIN IA Support English, Dev_Mutual Funds Trading English, Dev_OWI Advanced Planning Consulting English, Dev_Product Sales - Life Insurance English, Dev_Product Sales English, Dev_Service Account Maintenance English, Dev_Service Alternative Investments English, Dev_Service Cashiering English, Dev_Service eQuipt Client Portal English, Dev_Service eQuipt Dashboard Support English, Dev_Service eQuipt English, Dev_Service Life Events English, Dev_Service Margins English, Dev_Service Retirement Plan Account Opening English, Dev_Service Tax and Cost Basis English, Dev_Service Tech Support English, Dev_Service Transfers English, Dev_Suitability Sales Supervision English, IA Support Dev English</t>
-  </si>
-  <si>
-    <t>Genesys Support</t>
-  </si>
-  <si>
-    <t>genesyssupport@osaic.com</t>
-  </si>
-  <si>
-    <t>5e2604dd-76c9-4e0e-ba2a-5bb951c20fa6</t>
-  </si>
-  <si>
-    <t>Greg Arena</t>
-  </si>
-  <si>
-    <t>greg.arena@genesys.com</t>
-  </si>
-  <si>
-    <t>106dc3a2-42e4-411b-b5c8-ed8379435aa6</t>
-  </si>
-  <si>
-    <t>Kutlu Ergun</t>
-  </si>
-  <si>
-    <t>kutlu.ergun@genesys.com</t>
-  </si>
-  <si>
-    <t>9af9c97a-3796-4315-8b72-140d811a5321</t>
-  </si>
-  <si>
-    <t>Advanced Solutions Team, Advisory Services, Triad Technology, VIP</t>
-  </si>
-  <si>
-    <t>Philip Guevarra</t>
-  </si>
-  <si>
-    <t>philip.guevarra@genesys.com</t>
-  </si>
-  <si>
-    <t>cb435bca-9695-4b30-b3bc-421d7ba558d9</t>
-  </si>
-  <si>
-    <t>IA Support Dev English</t>
-  </si>
-  <si>
-    <t>IA_New_Accounts, LIN IA_Support_Billing</t>
-  </si>
-  <si>
-    <t>QA Test</t>
-  </si>
-  <si>
-    <t>qatest@genesys.com</t>
-  </si>
-  <si>
-    <t>63e441a5-3b53-4c94-8a6f-56c61cc631f1</t>
-  </si>
-  <si>
-    <t>Ramya Callur Raghunatha Rao</t>
-  </si>
-  <si>
-    <t>Ramya.Callur_Raghunatha_Rao@genesys.com</t>
-  </si>
-  <si>
-    <t>abbc8c32-23fa-46b0-bc0b-c5a0f4e3d4ab</t>
-  </si>
-  <si>
-    <t>LIN Account Maintenance English</t>
-  </si>
-  <si>
-    <t>Rich Surroz</t>
-  </si>
-  <si>
-    <t>richard.surroz2@genesys.com</t>
-  </si>
-  <si>
-    <t>b4acdeae-c109-43e0-b38e-958c6d3c135c</t>
+    <t>WebRTC</t>
+  </si>
+  <si>
+    <t>Work Phone</t>
+  </si>
+  <si>
+    <t>Work Phone 2</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>VA Claims Insider</t>
+  </si>
+  <si>
+    <t>employee-Home</t>
+  </si>
+  <si>
+    <t>Suma_Agent</t>
+  </si>
+  <si>
+    <t>suma_agent@test.com</t>
+  </si>
+  <si>
+    <t>genesys-integration</t>
+  </si>
+  <si>
+    <t>Leobit_Test_Queue</t>
+  </si>
+  <si>
+    <t>+1 737-251-8233</t>
+  </si>
+  <si>
+    <t>suma_agent2</t>
+  </si>
+  <si>
+    <t>suma_agent2@unittest.com</t>
+  </si>
+  <si>
+    <t>Script Designer-Home, Planner Admin-Home, Communicate - Admin-All Divisions, Developer-All Divisions, People Admin-Home, Agent Copilot Agent-Home, Quality Administrator-Home, Genesys-PS-Home, admin-All Divisions, Hourly Interacting User-Home, AI Agent-Home, Telephony Admin-Home, Agent Copilot Admin-Home, Supervisor-Home, Predictive Routing Admin-Home, Salesforce Agent-Home, Wallboard User-Home, SCIM Integration-Home, Outbound Agent-All Divisions, SWH_Agent-Home, Speech and Text Analytics Admin-Home, integrationServer-Home, Quality Evaluator-Home, Master Admin-All Divisions, Trigger Role-All Divisions, Outbound Admin-All Divisions</t>
+  </si>
+  <si>
+    <t>genesys-integration@example.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -205,13 +129,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -225,6 +152,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -511,23 +442,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F4D2750-4A25-40B4-9D8D-7347C7590674}">
-  <dimension ref="A1:E14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="255.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="56.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="76.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="137.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -543,172 +477,72 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D4" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{2BA3EA0F-10A1-4931-8413-ED630DD562A0}"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>